--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1448074.19409269</v>
+        <v>-1450934.026327959</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>26.36452539545458</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>167.5577857569064</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>33.83508264353959</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409151</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>72.43289562846323</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>12.32815485868963</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="4">
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>52.21594625443417</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>382.661229936139</v>
+        <v>382.6612299361395</v>
       </c>
       <c r="G5" t="n">
         <v>12.42254329489922</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.43720189476412</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3876437926214</v>
       </c>
       <c r="T5" t="n">
-        <v>210.487799365049</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>99.91982037447643</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>186.820885546165</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.661229936139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075472</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.9998595423835</v>
       </c>
       <c r="S6" t="n">
         <v>143.0590333442028</v>
       </c>
       <c r="T6" t="n">
-        <v>27.49402289104535</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>140.0792785144338</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>269.1152538431709</v>
+        <v>269.1152538431714</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>341.4393997559725</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>19.26063099411532</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.30292974753845</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>49.14185495865149</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.478783589885593</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>50.98465174282821</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>12.76515480631744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>103.5745801383483</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>78.34975387299224</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>140.7215037338436</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>86.09789039964257</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.839588425939253</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.73384166348</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652629</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020258</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>589.722739382397</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487946</v>
+        <v>589.722739382397</v>
       </c>
       <c r="U2" t="n">
-        <v>371.26277863231</v>
+        <v>400.3029543659124</v>
       </c>
       <c r="V2" t="n">
-        <v>371.26277863231</v>
+        <v>210.8831693494278</v>
       </c>
       <c r="W2" t="n">
-        <v>371.26277863231</v>
+        <v>210.8831693494278</v>
       </c>
       <c r="X2" t="n">
-        <v>371.26277863231</v>
+        <v>184.2523356166454</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.8500039144307</v>
+        <v>108.6784525769734</v>
       </c>
       <c r="C3" t="n">
-        <v>132.3969746333037</v>
+        <v>108.6784525769734</v>
       </c>
       <c r="D3" t="n">
-        <v>132.3969746333037</v>
+        <v>108.6784525769734</v>
       </c>
       <c r="E3" t="n">
-        <v>132.3969746333037</v>
+        <v>108.6784525769734</v>
       </c>
       <c r="F3" t="n">
-        <v>132.3969746333037</v>
+        <v>108.6784525769734</v>
       </c>
       <c r="G3" t="n">
-        <v>132.3969746333037</v>
+        <v>108.6784525769734</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296056</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546597</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017055</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264275</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264275</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264275</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264275</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="V3" t="n">
-        <v>664.4851259509834</v>
+        <v>298.098237593458</v>
       </c>
       <c r="W3" t="n">
-        <v>664.4851259509834</v>
+        <v>298.098237593458</v>
       </c>
       <c r="X3" t="n">
-        <v>664.4851259509834</v>
+        <v>298.098237593458</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.0653409344987</v>
+        <v>108.6784525769734</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230169</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170704</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396313</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>742.796520908846</v>
+        <v>1284.879804424257</v>
       </c>
       <c r="C5" t="n">
-        <v>742.796520908846</v>
+        <v>915.9172874838455</v>
       </c>
       <c r="D5" t="n">
-        <v>742.796520908846</v>
+        <v>915.9172874838455</v>
       </c>
       <c r="E5" t="n">
-        <v>742.796520908846</v>
+        <v>530.1290348856012</v>
       </c>
       <c r="F5" t="n">
-        <v>356.270026023857</v>
+        <v>143.6025400006117</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7220024936558</v>
+        <v>131.0545164704105</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489112</v>
+        <v>131.0545164704105</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121473</v>
+        <v>93.38580827121496</v>
       </c>
       <c r="K5" t="n">
         <v>238.2046462235839</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190632</v>
+        <v>454.7669823190635</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643072</v>
+        <v>727.4037457643079</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453889</v>
+        <v>1009.06586545389</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831931</v>
+        <v>1261.696156831932</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855774</v>
+        <v>1442.809264855776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744556</v>
+        <v>1530.644919744558</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744556</v>
+        <v>1530.644919744558</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744556</v>
+        <v>1385.808915913627</v>
       </c>
       <c r="T5" t="n">
-        <v>1318.030980991981</v>
+        <v>1385.808915913627</v>
       </c>
       <c r="U5" t="n">
-        <v>1318.030980991981</v>
+        <v>1385.808915913627</v>
       </c>
       <c r="V5" t="n">
-        <v>1318.030980991981</v>
+        <v>1284.879804424257</v>
       </c>
       <c r="W5" t="n">
-        <v>1318.030980991981</v>
+        <v>1284.879804424257</v>
       </c>
       <c r="X5" t="n">
-        <v>1129.323015793835</v>
+        <v>1284.879804424257</v>
       </c>
       <c r="Y5" t="n">
-        <v>742.796520908846</v>
+        <v>1284.879804424257</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>412.6572763558054</v>
+        <v>327.0245729934442</v>
       </c>
       <c r="C6" t="n">
-        <v>412.6572763558054</v>
+        <v>327.0245729934442</v>
       </c>
       <c r="D6" t="n">
-        <v>412.6572763558054</v>
+        <v>327.0245729934442</v>
       </c>
       <c r="E6" t="n">
-        <v>412.6572763558054</v>
+        <v>167.7871179879887</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1227183826904</v>
+        <v>167.7871179879887</v>
       </c>
       <c r="G6" t="n">
-        <v>128.9484987895929</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="H6" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="J6" t="n">
-        <v>49.1821665227528</v>
+        <v>49.18216652275292</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477044</v>
+        <v>159.0748281477047</v>
       </c>
       <c r="L6" t="n">
-        <v>353.161614454371</v>
+        <v>353.1616144543715</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642227</v>
+        <v>599.0086077642233</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621735</v>
+        <v>865.7710843621743</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970544</v>
+        <v>1087.586838970545</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422848</v>
+        <v>1246.280471422849</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680486</v>
+        <v>1302.443765680487</v>
       </c>
       <c r="R6" t="n">
-        <v>1302.443765680486</v>
+        <v>1251.938857051817</v>
       </c>
       <c r="S6" t="n">
-        <v>1157.939691595432</v>
+        <v>1107.434782966763</v>
       </c>
       <c r="T6" t="n">
-        <v>1130.167951301447</v>
+        <v>911.5224021523701</v>
       </c>
       <c r="U6" t="n">
-        <v>902.0467413157496</v>
+        <v>911.5224021523701</v>
       </c>
       <c r="V6" t="n">
-        <v>666.894633084007</v>
+        <v>676.3702939206273</v>
       </c>
       <c r="W6" t="n">
-        <v>412.6572763558054</v>
+        <v>534.876073198977</v>
       </c>
       <c r="X6" t="n">
-        <v>412.6572763558054</v>
+        <v>327.0245729934442</v>
       </c>
       <c r="Y6" t="n">
-        <v>412.6572763558054</v>
+        <v>327.0245729934442</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="C7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="D7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="F7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713231</v>
+        <v>51.49054881713244</v>
       </c>
       <c r="L7" t="n">
-        <v>108.112551136348</v>
+        <v>108.1125511363482</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055978</v>
+        <v>171.0707966055982</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221347</v>
+        <v>240.3895616221351</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645237</v>
+        <v>284.1035717645242</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354678</v>
+        <v>302.4464881354684</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354678</v>
+        <v>302.4464881354684</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354678</v>
+        <v>302.4464881354684</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354678</v>
+        <v>302.4464881354684</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354678</v>
+        <v>302.4464881354684</v>
       </c>
       <c r="U7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="V7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="W7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="X7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.61289839489112</v>
+        <v>30.61289839489116</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>841.9120835495623</v>
+        <v>806.35928974848</v>
       </c>
       <c r="C8" t="n">
-        <v>841.9120835495623</v>
+        <v>806.35928974848</v>
       </c>
       <c r="D8" t="n">
-        <v>841.9120835495623</v>
+        <v>448.0935911417295</v>
       </c>
       <c r="E8" t="n">
-        <v>456.1238309513181</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>449.1783302021146</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4805,16 +4805,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1958.285829056568</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>1958.285829056568</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W8" t="n">
-        <v>1605.517173786454</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="X8" t="n">
-        <v>1232.051415525374</v>
+        <v>1541.386904306082</v>
       </c>
       <c r="Y8" t="n">
-        <v>841.9120835495623</v>
+        <v>1151.24757233027</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>809.4046422439259</v>
+        <v>267.4604631511913</v>
       </c>
       <c r="C9" t="n">
-        <v>634.9516129627989</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="D9" t="n">
-        <v>486.0172033015477</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="E9" t="n">
-        <v>326.7797482960922</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333487</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101744</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373542</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168009</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030556</v>
+        <v>267.4604631511913</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.2822901204862</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="C10" t="n">
-        <v>191.2822901204862</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="D10" t="n">
-        <v>191.2822901204862</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4990,22 +4990,22 @@
         <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>273.8625692440756</v>
       </c>
       <c r="U10" t="n">
-        <v>445.9667783263731</v>
+        <v>273.8625692440756</v>
       </c>
       <c r="V10" t="n">
-        <v>191.2822901204862</v>
+        <v>273.8625692440756</v>
       </c>
       <c r="W10" t="n">
-        <v>191.2822901204862</v>
+        <v>273.8625692440756</v>
       </c>
       <c r="X10" t="n">
-        <v>191.2822901204862</v>
+        <v>45.8730183460583</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.2822901204862</v>
+        <v>45.8730183460583</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,7 +5279,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.741944003833</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797731</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1030.918378293891</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>861.9821953659841</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>711.8655559536484</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>563.9524623712553</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1212.566843124131</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5753,16 +5753,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1018.438627038651</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>849.5024441107445</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>699.3858046984087</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>551.4727111160156</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>404.5827636181052</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1420.879671012421</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1200.087091868891</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6254,10 +6254,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1018.438627038651</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>849.5024441107445</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>699.3858046984087</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>551.4727111160156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>404.5827636181052</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>237.3866643329852</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>95.67483317518324</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1648.869221910438</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1420.879671012421</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>1200.087091868891</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,16 +6488,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6506,7 +6506,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,19 +6534,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6601,22 +6601,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7175,16 +7175,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,10 +7208,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,49 +7567,49 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>247.9252960539635</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>77.08171901666384</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988697</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871053</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>107.1382930722546</v>
+        <v>140.2266713038152</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>218.6801528991471</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22729,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>199.9216970693938</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>212.9445005827197</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>182.9484181982427</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>67.07129414993901</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>111.4161395899844</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>79.42624789262628</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>79.42624789262628</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>135401.7127154573</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
@@ -26323,13 +26323,13 @@
         <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="G2" t="n">
         <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
@@ -26350,10 +26350,10 @@
         <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="P2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208452</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996509</v>
+        <v>216004.0468996515</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960614</v>
+        <v>167084.5112960609</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838283</v>
+        <v>50221.67010838296</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064577</v>
+        <v>59784.02116064571</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>196327.1528969924</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468116</v>
+        <v>221112.0537468115</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26427,37 +26427,37 @@
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687965</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687969</v>
       </c>
       <c r="I4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="L4" t="n">
-        <v>23427.49926997315</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="M4" t="n">
         <v>23427.49926997316</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997317</v>
       </c>
       <c r="O4" t="n">
         <v>23427.49926997314</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997315</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790108</v>
+        <v>72511.97598790113</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709268.1431139938</v>
+        <v>-709628.2261297113</v>
       </c>
       <c r="C6" t="n">
-        <v>-345419.7226615071</v>
+        <v>-345419.7226615074</v>
       </c>
       <c r="D6" t="n">
-        <v>-262278.2292679746</v>
+        <v>-262278.2292679742</v>
       </c>
       <c r="E6" t="n">
-        <v>-556573.0574670507</v>
+        <v>-556607.7953924865</v>
       </c>
       <c r="F6" t="n">
-        <v>44870.15010721445</v>
+        <v>44835.41218177883</v>
       </c>
       <c r="G6" t="n">
-        <v>44870.15010721447</v>
+        <v>44835.41218177877</v>
       </c>
       <c r="H6" t="n">
-        <v>44870.15010721433</v>
+        <v>44835.41218177869</v>
       </c>
       <c r="I6" t="n">
-        <v>44870.15010721436</v>
+        <v>44835.41218177875</v>
       </c>
       <c r="J6" t="n">
-        <v>-4194.794621330118</v>
+        <v>-4229.532546765753</v>
       </c>
       <c r="K6" t="n">
-        <v>-5351.520001168406</v>
+        <v>-5386.25792660423</v>
       </c>
       <c r="L6" t="n">
-        <v>-22167.28231167758</v>
+        <v>-22167.28231167755</v>
       </c>
       <c r="M6" t="n">
-        <v>-119529.6417026298</v>
+        <v>-119529.6417026299</v>
       </c>
       <c r="N6" t="n">
-        <v>37616.73884896821</v>
+        <v>37616.73884896812</v>
       </c>
       <c r="O6" t="n">
+        <v>37616.73884896829</v>
+      </c>
+      <c r="P6" t="n">
         <v>37616.73884896818</v>
-      </c>
-      <c r="P6" t="n">
-        <v>37616.73884896826</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836619</v>
+        <v>716.4483122836623</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>382.661229936139</v>
+        <v>382.6612299361395</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-5.349651756064147e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707575</v>
+        <v>167.9783713707579</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540222</v>
+        <v>137.2623522540218</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698192</v>
+        <v>195.1356427698198</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900242</v>
+        <v>159.4537267900237</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698192</v>
+        <v>195.1356427698195</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900241</v>
+        <v>159.4537267900239</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698192</v>
+        <v>195.1356427698198</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900242</v>
+        <v>159.4537267900237</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63.6436733987106</v>
       </c>
       <c r="V2" t="n">
-        <v>220.6139653978803</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>343.3665752830145</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>67.00667470720012</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681514</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>220.4724322907356</v>
+        <v>45.27499998310554</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098455</v>
+        <v>18.15710861098464</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825421</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709392</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159729</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,13 +27588,13 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>171.5037272356658</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.21481580557241</v>
+        <v>24.21481580557196</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476417</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724332</v>
+        <v>34.66253762724324</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926214</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.487799365049</v>
       </c>
       <c r="U5" t="n">
         <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>227.8324380956585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.9102151323041</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719914564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075472</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295521</v>
+        <v>46.46465121295519</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238355</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>166.4592341152038</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>111.6157046464858</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27795,7 +27795,7 @@
         <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037909</v>
+        <v>35.65413415037905</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.3213064746129</v>
+        <v>43.32130647461284</v>
       </c>
       <c r="R7" t="n">
         <v>119.2023528106942</v>
@@ -27828,7 +27828,7 @@
         <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>17.13330518752161</v>
+        <v>17.13330518752105</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>41.29444190750803</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>392.6101038495115</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27929,22 +27929,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.2302539023289</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>86.36537888838376</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>15.67552574935366</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>235.2504060728885</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>5.785973998768142e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
@@ -31060,16 +31060,16 @@
         <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974683</v>
@@ -31078,10 +31078,10 @@
         <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,31 +31136,31 @@
         <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235825</v>
+        <v>2.880194220235826</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799015</v>
+        <v>29.49678905799016</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756417</v>
+        <v>111.0386876756418</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997406</v>
+        <v>244.4528841997407</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423231</v>
+        <v>366.3715055423232</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098653</v>
+        <v>454.5162494098655</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739841</v>
+        <v>505.7369033739844</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022292</v>
+        <v>513.9202552022294</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247592</v>
+        <v>485.2803239247594</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126872</v>
+        <v>414.1755291126874</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004917</v>
+        <v>311.0285736004918</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868888</v>
+        <v>180.9230001868889</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362392</v>
+        <v>65.63242579362395</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908233</v>
+        <v>12.60805019908234</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188659</v>
+        <v>0.230415537618866</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044103</v>
+        <v>1.541039766044104</v>
       </c>
       <c r="H6" t="n">
         <v>14.88319984574174</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704479</v>
+        <v>53.05772878704481</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594563</v>
+        <v>145.5944631594564</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844112</v>
+        <v>248.8441274844113</v>
       </c>
       <c r="L6" t="n">
-        <v>334.601638675497</v>
+        <v>334.6016386754972</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945957</v>
+        <v>390.4643301945959</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519705</v>
+        <v>400.7987591519707</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306775</v>
+        <v>366.6525622306776</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510007</v>
+        <v>294.2710058510009</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462613</v>
+        <v>196.7123743462614</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158041</v>
+        <v>95.67964442158045</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963497</v>
+        <v>28.62413775963498</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572501</v>
+        <v>6.211471688572504</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344805</v>
+        <v>0.1013841951344806</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.291955972970538</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513806</v>
+        <v>11.48666310513807</v>
       </c>
       <c r="I7" t="n">
-        <v>38.852639623514</v>
+        <v>38.85263962351402</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901702</v>
+        <v>91.34128728901706</v>
       </c>
       <c r="K7" t="n">
-        <v>150.101793950577</v>
+        <v>150.1017939505771</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178198</v>
+        <v>192.0786180178199</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902816</v>
+        <v>202.5199712902817</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273916</v>
+        <v>197.7044990273917</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522357</v>
+        <v>182.6121042522358</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036366</v>
+        <v>156.2562024036367</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548329</v>
+        <v>108.183695154833</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647526</v>
+        <v>58.09103856647528</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258655</v>
+        <v>22.51526909258656</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874115</v>
+        <v>5.520175520874117</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839305</v>
+        <v>0.07047032579839309</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>182.7118610708583</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N21" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>531.8166820790245</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973019</v>
@@ -34708,16 +34708,16 @@
         <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
         <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N3" t="n">
         <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646072</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061146</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520818</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400467</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305428</v>
+        <v>63.40697967305439</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973425</v>
+        <v>146.2816544973427</v>
       </c>
       <c r="L5" t="n">
-        <v>218.749834439878</v>
+        <v>218.7498344398783</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467114</v>
+        <v>275.3906701467116</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056383</v>
+        <v>284.5071916056385</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030725</v>
+        <v>255.1821125030727</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574177</v>
+        <v>182.9425333574179</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604217</v>
+        <v>88.72288372604228</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278957</v>
+        <v>18.75683649278966</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100522</v>
+        <v>111.0026885100523</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956229</v>
+        <v>196.047258895623</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725774</v>
+        <v>248.3302962725776</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686372</v>
+        <v>269.4570470686374</v>
       </c>
       <c r="O6" t="n">
-        <v>224.056317786233</v>
+        <v>224.0563177862332</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366705</v>
+        <v>160.2965984366706</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023981</v>
+        <v>56.7306002602399</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004161</v>
+        <v>21.0885357800417</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658154</v>
+        <v>57.19394173658162</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267658</v>
+        <v>63.59418734267669</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215843</v>
+        <v>70.01895456215851</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039294</v>
+        <v>44.15556580039302</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448901</v>
+        <v>18.52819835448909</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096336</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>55.87423440419165</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37950,7 +37950,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
